--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Tafe\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andre\Desktop\Tafe-1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D51337CF-448A-4D98-925B-1A29B337866C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F58D27D-38DC-4586-A84F-577AA71B429E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B14F8B27-6047-49FF-970F-718C0A7680E6}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{B14F8B27-6047-49FF-970F-718C0A7680E6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -89,7 +89,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="176" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -154,7 +154,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -163,12 +163,13 @@
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -487,28 +488,28 @@
   <dimension ref="A2:O58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.5703125" customWidth="1"/>
-    <col min="4" max="4" width="13.85546875" customWidth="1"/>
-    <col min="5" max="5" width="16.28515625" customWidth="1"/>
-    <col min="6" max="6" width="15.28515625" customWidth="1"/>
-    <col min="7" max="7" width="13.5703125" customWidth="1"/>
+    <col min="2" max="2" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5546875" customWidth="1"/>
+    <col min="4" max="4" width="13.88671875" customWidth="1"/>
+    <col min="5" max="5" width="16.33203125" customWidth="1"/>
+    <col min="6" max="6" width="15.33203125" customWidth="1"/>
+    <col min="7" max="7" width="13.5546875" customWidth="1"/>
     <col min="8" max="8" width="13" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" customWidth="1"/>
-    <col min="10" max="10" width="36.5703125" customWidth="1"/>
-    <col min="11" max="11" width="13.140625" customWidth="1"/>
+    <col min="9" max="9" width="14.44140625" customWidth="1"/>
+    <col min="10" max="10" width="36.5546875" customWidth="1"/>
+    <col min="11" max="11" width="13.109375" customWidth="1"/>
     <col min="12" max="12" width="15" customWidth="1"/>
-    <col min="13" max="13" width="13.5703125" customWidth="1"/>
-    <col min="14" max="14" width="16.85546875" customWidth="1"/>
-    <col min="15" max="15" width="14.7109375" customWidth="1"/>
+    <col min="13" max="13" width="13.5546875" customWidth="1"/>
+    <col min="14" max="14" width="16.88671875" customWidth="1"/>
+    <col min="15" max="15" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>3</v>
       </c>
@@ -525,7 +526,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -538,7 +539,7 @@
         <v>559300</v>
       </c>
       <c r="D3" s="4">
-        <f t="shared" ref="D3:O3" si="0">SUM(259300,300000)</f>
+        <f t="shared" ref="D3:F3" si="0">SUM(259300,300000)</f>
         <v>559300</v>
       </c>
       <c r="E3" s="4">
@@ -559,7 +560,7 @@
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -593,27 +594,27 @@
       <c r="N4" s="3"/>
       <c r="O4" s="3"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="10">
         <f>B4/B3</f>
         <v>0.17779533781114185</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="10">
         <f t="shared" ref="C5:F5" si="1">C4/C3</f>
         <v>0.61863043089576253</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="10">
         <f t="shared" si="1"/>
         <v>0.64026461648489186</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="10">
         <f t="shared" si="1"/>
         <v>0.66406222063293407</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5" s="10">
         <f t="shared" si="1"/>
         <v>0.69023958519578044</v>
       </c>
@@ -627,12 +628,12 @@
       <c r="N5" s="6"/>
       <c r="O5" s="6"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>8</v>
       </c>
@@ -649,7 +650,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B13" s="3">
         <v>259300</v>
       </c>
@@ -675,7 +676,7 @@
       <c r="N13" s="3"/>
       <c r="O13" s="3"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B14" s="3">
         <v>500000</v>
       </c>
@@ -701,7 +702,7 @@
       <c r="N14" s="3"/>
       <c r="O14" s="3"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B15" s="5">
         <f>SUM(B13:B14)</f>
         <v>759300</v>
@@ -732,7 +733,7 @@
       <c r="N15" s="5"/>
       <c r="O15" s="5"/>
     </row>
-    <row r="22" spans="2:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
         <v>1</v>
       </c>
@@ -743,7 +744,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="23" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
         <v>8</v>
       </c>
@@ -760,7 +761,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B24" s="3">
         <v>110000</v>
       </c>
@@ -790,7 +791,7 @@
       <c r="N24" s="3"/>
       <c r="O24" s="3"/>
     </row>
-    <row r="25" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B25" s="3" t="s">
         <v>9</v>
       </c>
@@ -816,7 +817,7 @@
       <c r="N25" s="3"/>
       <c r="O25" s="3"/>
     </row>
-    <row r="26" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B26" s="3">
         <v>25000</v>
       </c>
@@ -842,7 +843,7 @@
       <c r="N26" s="3"/>
       <c r="O26" s="3"/>
     </row>
-    <row r="27" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B27" s="5">
         <f>SUM(B24:B26)</f>
         <v>135000</v>
@@ -873,140 +874,140 @@
       <c r="N27" s="5"/>
       <c r="O27" s="5"/>
     </row>
-    <row r="39" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D39" s="9"/>
       <c r="E39" s="9"/>
       <c r="G39" s="7"/>
       <c r="H39" s="7"/>
       <c r="J39" s="8"/>
     </row>
-    <row r="40" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D40" s="9"/>
       <c r="E40" s="9"/>
       <c r="G40" s="7"/>
       <c r="H40" s="7"/>
       <c r="J40" s="8"/>
     </row>
-    <row r="41" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D41" s="9"/>
       <c r="E41" s="9"/>
       <c r="G41" s="7"/>
       <c r="H41" s="7"/>
       <c r="J41" s="8"/>
     </row>
-    <row r="42" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D42" s="9"/>
       <c r="E42" s="9"/>
       <c r="G42" s="7"/>
       <c r="H42" s="7"/>
       <c r="J42" s="8"/>
     </row>
-    <row r="43" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D43" s="9"/>
       <c r="E43" s="9"/>
       <c r="G43" s="7"/>
       <c r="H43" s="7"/>
       <c r="J43" s="8"/>
     </row>
-    <row r="44" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D44" s="9"/>
       <c r="E44" s="9"/>
       <c r="G44" s="7"/>
       <c r="H44" s="7"/>
       <c r="J44" s="8"/>
     </row>
-    <row r="45" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D45" s="9"/>
       <c r="E45" s="9"/>
       <c r="G45" s="7"/>
       <c r="H45" s="7"/>
       <c r="J45" s="8"/>
     </row>
-    <row r="46" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D46" s="9"/>
       <c r="E46" s="9"/>
       <c r="G46" s="7"/>
       <c r="H46" s="7"/>
       <c r="J46" s="8"/>
     </row>
-    <row r="47" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D47" s="9"/>
       <c r="E47" s="9"/>
       <c r="G47" s="7"/>
       <c r="H47" s="7"/>
       <c r="J47" s="8"/>
     </row>
-    <row r="48" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D48" s="9"/>
       <c r="E48" s="9"/>
       <c r="G48" s="7"/>
       <c r="H48" s="7"/>
       <c r="J48" s="8"/>
     </row>
-    <row r="49" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D49" s="9"/>
       <c r="E49" s="9"/>
       <c r="G49" s="7"/>
       <c r="H49" s="7"/>
       <c r="J49" s="8"/>
     </row>
-    <row r="50" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D50" s="9"/>
       <c r="E50" s="9"/>
       <c r="G50" s="7"/>
       <c r="H50" s="7"/>
       <c r="J50" s="8"/>
     </row>
-    <row r="51" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D51" s="9"/>
       <c r="E51" s="9"/>
       <c r="G51" s="7"/>
       <c r="H51" s="7"/>
       <c r="J51" s="8"/>
     </row>
-    <row r="52" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D52" s="9"/>
       <c r="E52" s="9"/>
       <c r="G52" s="7"/>
       <c r="H52" s="7"/>
       <c r="J52" s="8"/>
     </row>
-    <row r="53" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D53" s="9"/>
       <c r="E53" s="9"/>
       <c r="G53" s="7"/>
       <c r="H53" s="7"/>
       <c r="J53" s="8"/>
     </row>
-    <row r="54" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D54" s="9"/>
       <c r="E54" s="9"/>
       <c r="G54" s="7"/>
       <c r="H54" s="7"/>
       <c r="J54" s="8"/>
     </row>
-    <row r="55" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D55" s="9"/>
       <c r="E55" s="9"/>
       <c r="G55" s="7"/>
       <c r="H55" s="7"/>
       <c r="J55" s="8"/>
     </row>
-    <row r="56" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D56" s="9"/>
       <c r="E56" s="9"/>
       <c r="G56" s="7"/>
       <c r="H56" s="7"/>
       <c r="J56" s="8"/>
     </row>
-    <row r="57" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="57" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D57" s="9"/>
       <c r="E57" s="9"/>
       <c r="G57" s="7"/>
       <c r="H57" s="7"/>
       <c r="J57" s="8"/>
     </row>
-    <row r="58" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="58" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D58" s="9"/>
       <c r="E58" s="9"/>
       <c r="G58" s="7"/>
